--- a/auto/devices/AFM_STM32F429xx.xlsx
+++ b/auto/devices/AFM_STM32F429xx.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="303">
   <si>
     <t>Device</t>
   </si>
@@ -59,6 +59,78 @@
     <t>0x40021000</t>
   </si>
   <si>
+    <t>GPIOF</t>
+  </si>
+  <si>
+    <t>0x4002 1400</t>
+  </si>
+  <si>
+    <t>GPIOG</t>
+  </si>
+  <si>
+    <t>0x4002 1800</t>
+  </si>
+  <si>
+    <t>GPIOH</t>
+  </si>
+  <si>
+    <t>0x4002 1C00</t>
+  </si>
+  <si>
+    <t>Timer2</t>
+  </si>
+  <si>
+    <t>0x4000 0000</t>
+  </si>
+  <si>
+    <t>Timer3</t>
+  </si>
+  <si>
+    <t>0x4000 0400</t>
+  </si>
+  <si>
+    <t>Timer4</t>
+  </si>
+  <si>
+    <t>0x4000 0800</t>
+  </si>
+  <si>
+    <t>Timer5</t>
+  </si>
+  <si>
+    <t>0x4000 0C00</t>
+  </si>
+  <si>
+    <t>Timer6</t>
+  </si>
+  <si>
+    <t>0x4000 1000</t>
+  </si>
+  <si>
+    <t>Timer7</t>
+  </si>
+  <si>
+    <t>0x4000 1400</t>
+  </si>
+  <si>
+    <t>Timer12</t>
+  </si>
+  <si>
+    <t>0x4000 1800</t>
+  </si>
+  <si>
+    <t>Timer13</t>
+  </si>
+  <si>
+    <t>0x4000 1C00</t>
+  </si>
+  <si>
+    <t>Timer14</t>
+  </si>
+  <si>
+    <t>0x4000 2000</t>
+  </si>
+  <si>
     <t>Timer1</t>
   </si>
   <si>
@@ -77,7 +149,10 @@
     <t>0x40014000</t>
   </si>
   <si>
-    <t>STM32F427xx</t>
+    <t>Timer10</t>
+  </si>
+  <si>
+    <t>0x40014400</t>
   </si>
   <si>
     <t>Pin</t>
@@ -86,9 +161,15 @@
     <t>AF0</t>
   </si>
   <si>
+    <t>Timer11</t>
+  </si>
+  <si>
     <t>AF1</t>
   </si>
   <si>
+    <t>0x40014800</t>
+  </si>
+  <si>
     <t>AF2</t>
   </si>
   <si>
@@ -104,12 +185,18 @@
     <t>AF6</t>
   </si>
   <si>
+    <t>I2C1</t>
+  </si>
+  <si>
     <t>AF7</t>
   </si>
   <si>
     <t>AF8</t>
   </si>
   <si>
+    <t>0x4000 5400</t>
+  </si>
+  <si>
     <t>AF9</t>
   </si>
   <si>
@@ -128,9 +215,15 @@
     <t>AF14</t>
   </si>
   <si>
+    <t>I2C2</t>
+  </si>
+  <si>
     <t>AF15</t>
   </si>
   <si>
+    <t>0x4000 5800</t>
+  </si>
+  <si>
     <t>PA0</t>
   </si>
   <si>
@@ -140,48 +233,213 @@
     <t>TIM5_CH1</t>
   </si>
   <si>
+    <t>I2C3</t>
+  </si>
+  <si>
+    <t>UART4_TX</t>
+  </si>
+  <si>
+    <t>0x4000 5C00</t>
+  </si>
+  <si>
     <t>PA1</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>TIM2_CH2</t>
+  </si>
+  <si>
+    <t>USART1</t>
+  </si>
+  <si>
+    <t>TIM5_CH2</t>
+  </si>
+  <si>
+    <t>0x4001 1000</t>
+  </si>
+  <si>
+    <t>UART4_RX</t>
+  </si>
+  <si>
+    <t>USART2</t>
   </si>
   <si>
     <t>PA2</t>
   </si>
   <si>
+    <t>0x4000 4400</t>
+  </si>
+  <si>
+    <t>TIM2_CH3</t>
+  </si>
+  <si>
+    <t>TIM5_CH3</t>
+  </si>
+  <si>
+    <t>USART3</t>
+  </si>
+  <si>
+    <t>TIM9_CH1</t>
+  </si>
+  <si>
+    <t>0x4000 4800</t>
+  </si>
+  <si>
+    <t>USART2_TX</t>
+  </si>
+  <si>
     <t>PA3</t>
   </si>
   <si>
+    <t>UART4</t>
+  </si>
+  <si>
+    <t>TIM2_CH4</t>
+  </si>
+  <si>
+    <t>0x4000 4C00</t>
+  </si>
+  <si>
+    <t>TIM5_CH4</t>
+  </si>
+  <si>
+    <t>TIM9_CH2</t>
+  </si>
+  <si>
+    <t>UART5</t>
+  </si>
+  <si>
+    <t>USART2_RX</t>
+  </si>
+  <si>
+    <t>0x4000 5000</t>
+  </si>
+  <si>
     <t>PA4</t>
   </si>
   <si>
+    <t>SPI1_NSS</t>
+  </si>
+  <si>
+    <t>SPI3_NSS</t>
+  </si>
+  <si>
+    <t>USART6</t>
+  </si>
+  <si>
+    <t>0x4001 1400</t>
+  </si>
+  <si>
     <t>PA5</t>
   </si>
   <si>
+    <t>UART7</t>
+  </si>
+  <si>
+    <t>0x4000 7800</t>
+  </si>
+  <si>
+    <t>SPI1_SCK</t>
+  </si>
+  <si>
+    <t>UART8</t>
+  </si>
+  <si>
     <t>PA6</t>
   </si>
   <si>
+    <t>0x4000 7C00</t>
+  </si>
+  <si>
+    <t>TIM3_CH1</t>
+  </si>
+  <si>
+    <t>SPI1_MISO</t>
+  </si>
+  <si>
+    <t>TIM13_CH1</t>
+  </si>
+  <si>
+    <t>SPI1</t>
+  </si>
+  <si>
+    <t>0x4001 3000</t>
+  </si>
+  <si>
     <t>PA7</t>
   </si>
   <si>
+    <t>TIM3_CH2</t>
+  </si>
+  <si>
+    <t>SPI2</t>
+  </si>
+  <si>
+    <t>SPI1_MOSI</t>
+  </si>
+  <si>
+    <t>0x4000 3800</t>
+  </si>
+  <si>
+    <t>TIM14_CH1</t>
+  </si>
+  <si>
     <t>PA8</t>
   </si>
   <si>
+    <t>SPI3</t>
+  </si>
+  <si>
+    <t>TIM1_CH1</t>
+  </si>
+  <si>
+    <t>0x4000 3C00</t>
+  </si>
+  <si>
+    <t>I2C3_SCL</t>
+  </si>
+  <si>
+    <t>SPI4</t>
+  </si>
+  <si>
     <t>PA9</t>
   </si>
   <si>
+    <t>0x4001 3400</t>
+  </si>
+  <si>
+    <t>TIM1_CH2</t>
+  </si>
+  <si>
     <t>USART1_TX</t>
   </si>
   <si>
+    <t>SPI5</t>
+  </si>
+  <si>
+    <t>0x4001 5000</t>
+  </si>
+  <si>
     <t>PA10</t>
   </si>
   <si>
+    <t>TIM1_CH3</t>
+  </si>
+  <si>
     <t>USART1_RX</t>
   </si>
   <si>
+    <t>SPI6</t>
+  </si>
+  <si>
+    <t>0x4001 5400</t>
+  </si>
+  <si>
     <t>PA11</t>
   </si>
   <si>
+    <t>TIM1_CH4</t>
+  </si>
+  <si>
     <t>PA12</t>
   </si>
   <si>
@@ -197,39 +455,90 @@
     <t>PB0</t>
   </si>
   <si>
+    <t>TIM3_CH3</t>
+  </si>
+  <si>
     <t>PB1</t>
   </si>
   <si>
+    <t>TIM3_CH4</t>
+  </si>
+  <si>
     <t>PB2</t>
   </si>
   <si>
     <t>PB3</t>
   </si>
   <si>
+    <t>SPI3_SCK</t>
+  </si>
+  <si>
     <t>PB4</t>
   </si>
   <si>
+    <t>SPI3_MISO</t>
+  </si>
+  <si>
     <t>PB5</t>
   </si>
   <si>
+    <t>SPI3_MOSI</t>
+  </si>
+  <si>
     <t>PB6</t>
   </si>
   <si>
+    <t>TIM4_CH1</t>
+  </si>
+  <si>
+    <t>I2C1_SCL</t>
+  </si>
+  <si>
     <t>PB7</t>
   </si>
   <si>
+    <t>TIM4_CH2</t>
+  </si>
+  <si>
+    <t>I2C1_SDA</t>
+  </si>
+  <si>
     <t>PB8</t>
   </si>
   <si>
+    <t>TIM4_CH3</t>
+  </si>
+  <si>
+    <t>TIM10_CH1</t>
+  </si>
+  <si>
     <t>PB9</t>
   </si>
   <si>
+    <t>TIM4_CH4</t>
+  </si>
+  <si>
+    <t>TIM11_CH1</t>
+  </si>
+  <si>
     <t>PB10</t>
   </si>
   <si>
+    <t>I2C2_SCL</t>
+  </si>
+  <si>
+    <t>USART3_TX</t>
+  </si>
+  <si>
     <t>PB11</t>
   </si>
   <si>
+    <t>I2C2_SDA</t>
+  </si>
+  <si>
+    <t>USART3_RX</t>
+  </si>
+  <si>
     <t>PB12</t>
   </si>
   <si>
@@ -239,9 +548,15 @@
     <t>PB14</t>
   </si>
   <si>
+    <t>TIM12_CH1</t>
+  </si>
+  <si>
     <t>PB15</t>
   </si>
   <si>
+    <t>TIM12_CH2</t>
+  </si>
+  <si>
     <t>PC0</t>
   </si>
   <si>
@@ -263,15 +578,36 @@
     <t>PC6</t>
   </si>
   <si>
+    <t>TIM8_CH1</t>
+  </si>
+  <si>
+    <t>USART6_TX</t>
+  </si>
+  <si>
     <t>PC7</t>
   </si>
   <si>
+    <t>TIM8_CH2</t>
+  </si>
+  <si>
+    <t>USART6_RX</t>
+  </si>
+  <si>
     <t>PC8</t>
   </si>
   <si>
+    <t>TIM8_CH3</t>
+  </si>
+  <si>
     <t>PC9</t>
   </si>
   <si>
+    <t>TIM8_CH4</t>
+  </si>
+  <si>
+    <t>I2C3_SDA</t>
+  </si>
+  <si>
     <t>PC10</t>
   </si>
   <si>
@@ -281,6 +617,9 @@
     <t>PC12</t>
   </si>
   <si>
+    <t>UART5_TX</t>
+  </si>
+  <si>
     <t>PC13</t>
   </si>
   <si>
@@ -299,6 +638,12 @@
     <t>PD2</t>
   </si>
   <si>
+    <t>SPI2_SCK</t>
+  </si>
+  <si>
+    <t>UART5_RX</t>
+  </si>
+  <si>
     <t>PD3</t>
   </si>
   <si>
@@ -341,48 +686,54 @@
     <t>PE0</t>
   </si>
   <si>
+    <t>UART8_RX</t>
+  </si>
+  <si>
     <t>PE1</t>
   </si>
   <si>
+    <t>UART8_TX</t>
+  </si>
+  <si>
     <t>PE2</t>
   </si>
   <si>
+    <t>SPI4_SCK</t>
+  </si>
+  <si>
     <t>PE3</t>
   </si>
   <si>
     <t>PE4</t>
   </si>
   <si>
+    <t>SPI4_NSS</t>
+  </si>
+  <si>
     <t>PE5</t>
   </si>
   <si>
+    <t>SPI4_MISO</t>
+  </si>
+  <si>
     <t>PE6</t>
   </si>
   <si>
+    <t>SPI4_MOSI</t>
+  </si>
+  <si>
     <t>PE7</t>
   </si>
   <si>
-    <t>Timer10</t>
-  </si>
-  <si>
-    <t>0x40014400</t>
-  </si>
-  <si>
-    <t>Timer11</t>
-  </si>
-  <si>
-    <t>0x40014800</t>
-  </si>
-  <si>
-    <t>USART1</t>
-  </si>
-  <si>
-    <t>0x40011000</t>
+    <t>UART7_RX</t>
   </si>
   <si>
     <t>PE8</t>
   </si>
   <si>
+    <t>UART7_TX</t>
+  </si>
+  <si>
     <t>PE9</t>
   </si>
   <si>
@@ -402,6 +753,174 @@
   </si>
   <si>
     <t>PE15</t>
+  </si>
+  <si>
+    <t>PF0</t>
+  </si>
+  <si>
+    <t>PF1</t>
+  </si>
+  <si>
+    <t>PF2</t>
+  </si>
+  <si>
+    <t>PF3</t>
+  </si>
+  <si>
+    <t>PF4</t>
+  </si>
+  <si>
+    <t>PF5</t>
+  </si>
+  <si>
+    <t>PF6</t>
+  </si>
+  <si>
+    <t>SPI5_NSS</t>
+  </si>
+  <si>
+    <t>PF7</t>
+  </si>
+  <si>
+    <t>SPI5_SCK</t>
+  </si>
+  <si>
+    <t>PF8</t>
+  </si>
+  <si>
+    <t>SPI5_MISO</t>
+  </si>
+  <si>
+    <t>PF9</t>
+  </si>
+  <si>
+    <t>SPI5_MOSI</t>
+  </si>
+  <si>
+    <t>PF10</t>
+  </si>
+  <si>
+    <t>PF11</t>
+  </si>
+  <si>
+    <t>PF12</t>
+  </si>
+  <si>
+    <t>PF13</t>
+  </si>
+  <si>
+    <t>PF14</t>
+  </si>
+  <si>
+    <t>PF15</t>
+  </si>
+  <si>
+    <t>PG0</t>
+  </si>
+  <si>
+    <t>PG1</t>
+  </si>
+  <si>
+    <t>PG2</t>
+  </si>
+  <si>
+    <t>PG3</t>
+  </si>
+  <si>
+    <t>PG4</t>
+  </si>
+  <si>
+    <t>PG5</t>
+  </si>
+  <si>
+    <t>PG6</t>
+  </si>
+  <si>
+    <t>PG7</t>
+  </si>
+  <si>
+    <t>PG8</t>
+  </si>
+  <si>
+    <t>SPI6_NSS</t>
+  </si>
+  <si>
+    <t>PG9</t>
+  </si>
+  <si>
+    <t>PG10</t>
+  </si>
+  <si>
+    <t>PG11</t>
+  </si>
+  <si>
+    <t>PG12</t>
+  </si>
+  <si>
+    <t>SPI6_MISO</t>
+  </si>
+  <si>
+    <t>PG13</t>
+  </si>
+  <si>
+    <t>SPI6_SCK</t>
+  </si>
+  <si>
+    <t>PG14</t>
+  </si>
+  <si>
+    <t>SPI6_MOSI</t>
+  </si>
+  <si>
+    <t>PG15</t>
+  </si>
+  <si>
+    <t>PH0</t>
+  </si>
+  <si>
+    <t>PH1</t>
+  </si>
+  <si>
+    <t>PH2</t>
+  </si>
+  <si>
+    <t>PH3</t>
+  </si>
+  <si>
+    <t>PH4</t>
+  </si>
+  <si>
+    <t>PH5</t>
+  </si>
+  <si>
+    <t>PH6</t>
+  </si>
+  <si>
+    <t>PH7</t>
+  </si>
+  <si>
+    <t>PH8</t>
+  </si>
+  <si>
+    <t>PH9</t>
+  </si>
+  <si>
+    <t>PH10</t>
+  </si>
+  <si>
+    <t>PH11</t>
+  </si>
+  <si>
+    <t>PH12</t>
+  </si>
+  <si>
+    <t>PH13</t>
+  </si>
+  <si>
+    <t>PH14</t>
+  </si>
+  <si>
+    <t>PH15</t>
   </si>
 </sst>
 </file>
@@ -463,539 +982,1136 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="14.43"/>
+    <col customWidth="1" min="1" max="1" width="8.86"/>
+    <col customWidth="1" min="2" max="2" width="8.0"/>
+    <col customWidth="1" min="3" max="3" width="11.29"/>
+    <col customWidth="1" min="4" max="4" width="10.71"/>
+    <col customWidth="1" min="5" max="5" width="11.14"/>
+    <col customWidth="1" min="6" max="6" width="14.43"/>
+    <col customWidth="1" min="7" max="7" width="12.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>21</v>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="L2" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="M2" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="N2" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="P2" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="Q2" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>72</v>
+      </c>
+      <c r="J3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>79</v>
+      </c>
+      <c r="J4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>91</v>
+      </c>
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>100</v>
+      </c>
+      <c r="G7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>105</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>110</v>
+      </c>
+      <c r="D9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>117</v>
+      </c>
+      <c r="D10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>123</v>
+      </c>
+      <c r="C11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>52</v>
+        <v>129</v>
+      </c>
+      <c r="C12" t="s">
+        <v>131</v>
+      </c>
+      <c r="I12" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>54</v>
+        <v>135</v>
+      </c>
+      <c r="C13" t="s">
+        <v>136</v>
+      </c>
+      <c r="I13" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>140</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>145</v>
+      </c>
+      <c r="C18" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>146</v>
+      </c>
+      <c r="D19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>148</v>
+      </c>
+      <c r="D20" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>151</v>
+      </c>
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>153</v>
+      </c>
+      <c r="D23" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" t="s">
+        <v>113</v>
+      </c>
+      <c r="H23" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>155</v>
+      </c>
+      <c r="D24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G24" t="s">
+        <v>120</v>
+      </c>
+      <c r="H24" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" t="s">
-        <v>66</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>52</v>
+        <v>157</v>
+      </c>
+      <c r="D25" t="s">
+        <v>158</v>
+      </c>
+      <c r="F25" t="s">
+        <v>159</v>
+      </c>
+      <c r="I25" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" t="s">
-        <v>67</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>54</v>
+        <v>160</v>
+      </c>
+      <c r="D26" t="s">
+        <v>161</v>
+      </c>
+      <c r="F26" t="s">
+        <v>162</v>
+      </c>
+      <c r="I26" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>163</v>
+      </c>
+      <c r="D27" t="s">
+        <v>164</v>
+      </c>
+      <c r="E27" t="s">
+        <v>165</v>
+      </c>
+      <c r="F27" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>166</v>
+      </c>
+      <c r="D28" t="s">
+        <v>167</v>
+      </c>
+      <c r="E28" t="s">
+        <v>168</v>
+      </c>
+      <c r="F28" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>169</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" t="s">
+        <v>170</v>
+      </c>
+      <c r="I29" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>172</v>
+      </c>
+      <c r="C30" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" t="s">
+        <v>173</v>
+      </c>
+      <c r="I30" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>177</v>
+      </c>
+      <c r="K33" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>179</v>
+      </c>
+      <c r="K34" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>187</v>
+      </c>
+      <c r="D41" t="s">
+        <v>112</v>
+      </c>
+      <c r="E41" t="s">
+        <v>188</v>
+      </c>
+      <c r="J41" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>190</v>
+      </c>
+      <c r="D42" t="s">
+        <v>118</v>
+      </c>
+      <c r="E42" t="s">
+        <v>191</v>
+      </c>
+      <c r="J42" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>193</v>
+      </c>
+      <c r="D43" t="s">
+        <v>147</v>
+      </c>
+      <c r="E43" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>195</v>
+      </c>
+      <c r="D44" t="s">
+        <v>149</v>
+      </c>
+      <c r="E44" t="s">
+        <v>196</v>
+      </c>
+      <c r="F44" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" t="s">
-        <v>86</v>
+        <v>198</v>
+      </c>
+      <c r="H45" t="s">
+        <v>152</v>
+      </c>
+      <c r="I45" t="s">
+        <v>171</v>
+      </c>
+      <c r="J45" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>199</v>
+      </c>
+      <c r="H46" t="s">
+        <v>154</v>
+      </c>
+      <c r="I46" t="s">
+        <v>174</v>
+      </c>
+      <c r="J46" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" t="s">
-        <v>88</v>
+        <v>200</v>
+      </c>
+      <c r="H47" t="s">
+        <v>156</v>
+      </c>
+      <c r="J47" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" t="s">
-        <v>89</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" t="s">
-        <v>90</v>
+        <v>203</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" t="s">
-        <v>91</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" t="s">
-        <v>92</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" t="s">
-        <v>93</v>
+        <v>206</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" t="s">
-        <v>94</v>
+        <v>207</v>
+      </c>
+      <c r="G53" t="s">
+        <v>208</v>
+      </c>
+      <c r="J53" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" t="s">
-        <v>95</v>
+        <v>210</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" t="s">
-        <v>96</v>
+        <v>211</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" t="s">
-        <v>97</v>
+        <v>212</v>
+      </c>
+      <c r="I56" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" t="s">
+        <v>213</v>
+      </c>
+      <c r="G57" t="s">
+        <v>156</v>
+      </c>
+      <c r="I57" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" t="s">
-        <v>99</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" t="s">
-        <v>100</v>
+        <v>215</v>
+      </c>
+      <c r="I59" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" t="s">
-        <v>101</v>
+        <v>216</v>
+      </c>
+      <c r="I60" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" t="s">
-        <v>102</v>
+        <v>217</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" t="s">
-        <v>103</v>
+        <v>218</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" t="s">
-        <v>104</v>
+        <v>219</v>
+      </c>
+      <c r="D63" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" t="s">
-        <v>105</v>
+        <v>220</v>
+      </c>
+      <c r="D64" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" t="s">
-        <v>106</v>
+        <v>221</v>
+      </c>
+      <c r="D65" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" t="s">
-        <v>107</v>
+        <v>222</v>
+      </c>
+      <c r="D66" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" t="s">
-        <v>108</v>
+        <v>223</v>
+      </c>
+      <c r="J67" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" t="s">
-        <v>109</v>
+        <v>225</v>
+      </c>
+      <c r="J68" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" t="s">
-        <v>110</v>
+        <v>227</v>
+      </c>
+      <c r="G69" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" t="s">
-        <v>111</v>
+        <v>229</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" t="s">
-        <v>112</v>
+        <v>230</v>
+      </c>
+      <c r="G71" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" t="s">
-        <v>113</v>
+        <v>232</v>
+      </c>
+      <c r="E72" t="s">
+        <v>88</v>
+      </c>
+      <c r="G72" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" t="s">
-        <v>114</v>
+        <v>234</v>
+      </c>
+      <c r="E73" t="s">
+        <v>96</v>
+      </c>
+      <c r="G73" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" t="s">
-        <v>115</v>
+        <v>236</v>
+      </c>
+      <c r="J74" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" t="s">
-        <v>122</v>
+        <v>238</v>
+      </c>
+      <c r="J75" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" t="s">
-        <v>123</v>
+        <v>240</v>
+      </c>
+      <c r="C76" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" t="s">
-        <v>124</v>
+        <v>241</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" t="s">
-        <v>125</v>
+        <v>242</v>
+      </c>
+      <c r="C78" t="s">
+        <v>131</v>
+      </c>
+      <c r="G78" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" t="s">
-        <v>126</v>
+        <v>243</v>
+      </c>
+      <c r="G79" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" t="s">
-        <v>127</v>
+        <v>244</v>
+      </c>
+      <c r="C80" t="s">
+        <v>136</v>
+      </c>
+      <c r="G80" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" t="s">
-        <v>128</v>
+        <v>245</v>
+      </c>
+      <c r="C81" t="s">
+        <v>141</v>
+      </c>
+      <c r="G81" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" t="s">
+        <v>247</v>
+      </c>
+      <c r="F83" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" t="s">
+        <v>248</v>
+      </c>
+      <c r="F84" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" t="s">
+        <v>253</v>
+      </c>
+      <c r="E89" t="s">
+        <v>165</v>
+      </c>
+      <c r="G89" t="s">
+        <v>254</v>
+      </c>
+      <c r="J89" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" t="s">
+        <v>255</v>
+      </c>
+      <c r="E90" t="s">
+        <v>168</v>
+      </c>
+      <c r="G90" t="s">
+        <v>256</v>
+      </c>
+      <c r="J90" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" t="s">
+        <v>257</v>
+      </c>
+      <c r="G91" t="s">
+        <v>258</v>
+      </c>
+      <c r="K91" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" t="s">
+        <v>259</v>
+      </c>
+      <c r="G92" t="s">
+        <v>260</v>
+      </c>
+      <c r="K92" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" t="s">
+        <v>262</v>
+      </c>
+      <c r="G94" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="A98" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="A99" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="A100" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="A101" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="A102" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="A103" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="A104" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="A105" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="A106" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="A107" t="s">
+        <v>275</v>
+      </c>
+      <c r="G107" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="A108" t="s">
+        <v>277</v>
+      </c>
+      <c r="J108" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="A109" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="A110" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="A111" t="s">
+        <v>280</v>
+      </c>
+      <c r="G111" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="A112" t="s">
+        <v>282</v>
+      </c>
+      <c r="G112" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="A113" t="s">
+        <v>284</v>
+      </c>
+      <c r="G113" t="s">
+        <v>285</v>
+      </c>
+      <c r="J113" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="A114" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="A115" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="A116" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="A117" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="A118" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="A119" t="s">
+        <v>291</v>
+      </c>
+      <c r="F119" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="A120" t="s">
+        <v>292</v>
+      </c>
+      <c r="F120" t="s">
+        <v>173</v>
+      </c>
+      <c r="G120" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="A121" t="s">
+        <v>293</v>
+      </c>
+      <c r="G121" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="A122" t="s">
+        <v>294</v>
+      </c>
+      <c r="F122" t="s">
+        <v>127</v>
+      </c>
+      <c r="G122" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="A123" t="s">
+        <v>295</v>
+      </c>
+      <c r="F123" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="A124" t="s">
+        <v>296</v>
+      </c>
+      <c r="K124" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="A125" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="126" ht="15.75" customHeight="1">
+      <c r="A126" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="A127" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="A128" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="A129" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="A130" t="s">
+        <v>302</v>
+      </c>
+    </row>
     <row r="131" ht="15.75" customHeight="1"/>
     <row r="132" ht="15.75" customHeight="1"/>
     <row r="133" ht="15.75" customHeight="1"/>
@@ -1969,7 +3085,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -1980,7 +3096,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -1991,70 +3107,350 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="C11">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" t="s">
         <v>119</v>
       </c>
-      <c r="C12">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="B37" t="s">
         <v>121</v>
       </c>
-      <c r="C13" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
+      <c r="C37">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" t="s">
+        <v>138</v>
+      </c>
+      <c r="B41" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41">
+        <v>21.0</v>
+      </c>
+    </row>
     <row r="42" ht="15.75" customHeight="1"/>
     <row r="43" ht="15.75" customHeight="1"/>
     <row r="44" ht="15.75" customHeight="1"/>

--- a/auto/devices/AFM_STM32F429xx.xlsx
+++ b/auto/devices/AFM_STM32F429xx.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="306">
   <si>
     <t>Device</t>
   </si>
@@ -20,6 +20,120 @@
     <t>STM32F429xx</t>
   </si>
   <si>
+    <t>Pin</t>
+  </si>
+  <si>
+    <t>AF0</t>
+  </si>
+  <si>
+    <t>AF1</t>
+  </si>
+  <si>
+    <t>AF2</t>
+  </si>
+  <si>
+    <t>AF3</t>
+  </si>
+  <si>
+    <t>AF4</t>
+  </si>
+  <si>
+    <t>AF5</t>
+  </si>
+  <si>
+    <t>AF6</t>
+  </si>
+  <si>
+    <t>AF7</t>
+  </si>
+  <si>
+    <t>AF8</t>
+  </si>
+  <si>
+    <t>AF9</t>
+  </si>
+  <si>
+    <t>AF10</t>
+  </si>
+  <si>
+    <t>AF11</t>
+  </si>
+  <si>
+    <t>AF12</t>
+  </si>
+  <si>
+    <t>AF13</t>
+  </si>
+  <si>
+    <t>AF14</t>
+  </si>
+  <si>
+    <t>AF15</t>
+  </si>
+  <si>
+    <t>PA0</t>
+  </si>
+  <si>
+    <t>TIM2_CH1</t>
+  </si>
+  <si>
+    <t>TIM5_CH1</t>
+  </si>
+  <si>
+    <t>UART4_TX</t>
+  </si>
+  <si>
+    <t>PA1</t>
+  </si>
+  <si>
+    <t>TIM2_CH2</t>
+  </si>
+  <si>
+    <t>TIM5_CH2</t>
+  </si>
+  <si>
+    <t>UART4_RX</t>
+  </si>
+  <si>
+    <t>PA2</t>
+  </si>
+  <si>
+    <t>TIM2_CH3</t>
+  </si>
+  <si>
+    <t>TIM5_CH3</t>
+  </si>
+  <si>
+    <t>TIM9_CH1</t>
+  </si>
+  <si>
+    <t>USART2_TX</t>
+  </si>
+  <si>
+    <t>PA3</t>
+  </si>
+  <si>
+    <t>TIM2_CH4</t>
+  </si>
+  <si>
+    <t>TIM5_CH4</t>
+  </si>
+  <si>
+    <t>TIM9_CH2</t>
+  </si>
+  <si>
+    <t>USART2_RX</t>
+  </si>
+  <si>
+    <t>PA4</t>
+  </si>
+  <si>
+    <t>SPI1_NSS</t>
+  </si>
+  <si>
+    <t>SPI3_NSS</t>
+  </si>
+  <si>
     <t>Peripheral name</t>
   </si>
   <si>
@@ -155,201 +269,123 @@
     <t>0x40014400</t>
   </si>
   <si>
-    <t>Pin</t>
-  </si>
-  <si>
-    <t>AF0</t>
-  </si>
-  <si>
     <t>Timer11</t>
   </si>
   <si>
-    <t>AF1</t>
-  </si>
-  <si>
     <t>0x40014800</t>
   </si>
   <si>
-    <t>AF2</t>
-  </si>
-  <si>
-    <t>AF3</t>
-  </si>
-  <si>
-    <t>AF4</t>
-  </si>
-  <si>
-    <t>AF5</t>
-  </si>
-  <si>
-    <t>AF6</t>
-  </si>
-  <si>
     <t>I2C1</t>
   </si>
   <si>
-    <t>AF7</t>
-  </si>
-  <si>
-    <t>AF8</t>
-  </si>
-  <si>
     <t>0x4000 5400</t>
   </si>
   <si>
-    <t>AF9</t>
-  </si>
-  <si>
-    <t>AF10</t>
-  </si>
-  <si>
-    <t>AF11</t>
-  </si>
-  <si>
-    <t>AF12</t>
-  </si>
-  <si>
-    <t>AF13</t>
-  </si>
-  <si>
-    <t>AF14</t>
-  </si>
-  <si>
     <t>I2C2</t>
   </si>
   <si>
-    <t>AF15</t>
-  </si>
-  <si>
     <t>0x4000 5800</t>
   </si>
   <si>
-    <t>PA0</t>
-  </si>
-  <si>
-    <t>TIM2_CH1</t>
-  </si>
-  <si>
-    <t>TIM5_CH1</t>
-  </si>
-  <si>
     <t>I2C3</t>
   </si>
   <si>
-    <t>UART4_TX</t>
-  </si>
-  <si>
     <t>0x4000 5C00</t>
   </si>
   <si>
-    <t>PA1</t>
-  </si>
-  <si>
-    <t>TIM2_CH2</t>
-  </si>
-  <si>
     <t>USART1</t>
   </si>
   <si>
-    <t>TIM5_CH2</t>
-  </si>
-  <si>
     <t>0x4001 1000</t>
   </si>
   <si>
-    <t>UART4_RX</t>
-  </si>
-  <si>
     <t>USART2</t>
   </si>
   <si>
-    <t>PA2</t>
-  </si>
-  <si>
     <t>0x4000 4400</t>
   </si>
   <si>
-    <t>TIM2_CH3</t>
-  </si>
-  <si>
-    <t>TIM5_CH3</t>
-  </si>
-  <si>
     <t>USART3</t>
   </si>
   <si>
-    <t>TIM9_CH1</t>
-  </si>
-  <si>
     <t>0x4000 4800</t>
   </si>
   <si>
-    <t>USART2_TX</t>
-  </si>
-  <si>
-    <t>PA3</t>
-  </si>
-  <si>
     <t>UART4</t>
   </si>
   <si>
-    <t>TIM2_CH4</t>
-  </si>
-  <si>
     <t>0x4000 4C00</t>
   </si>
   <si>
-    <t>TIM5_CH4</t>
-  </si>
-  <si>
-    <t>TIM9_CH2</t>
-  </si>
-  <si>
     <t>UART5</t>
   </si>
   <si>
-    <t>USART2_RX</t>
-  </si>
-  <si>
     <t>0x4000 5000</t>
   </si>
   <si>
-    <t>PA4</t>
-  </si>
-  <si>
-    <t>SPI1_NSS</t>
-  </si>
-  <si>
-    <t>SPI3_NSS</t>
-  </si>
-  <si>
     <t>USART6</t>
   </si>
   <si>
     <t>0x4001 1400</t>
   </si>
   <si>
+    <t>UART7</t>
+  </si>
+  <si>
+    <t>0x4000 7800</t>
+  </si>
+  <si>
+    <t>UART8</t>
+  </si>
+  <si>
+    <t>0x4000 7C00</t>
+  </si>
+  <si>
+    <t>SPI1</t>
+  </si>
+  <si>
+    <t>0x4001 3000</t>
+  </si>
+  <si>
+    <t>SPI2</t>
+  </si>
+  <si>
+    <t>0x4000 3800</t>
+  </si>
+  <si>
+    <t>SPI3</t>
+  </si>
+  <si>
+    <t>0x4000 3C00</t>
+  </si>
+  <si>
+    <t>SPI4</t>
+  </si>
+  <si>
+    <t>0x4001 3400</t>
+  </si>
+  <si>
+    <t>SPI5</t>
+  </si>
+  <si>
+    <t>0x4001 5000</t>
+  </si>
+  <si>
+    <t>SPI6</t>
+  </si>
+  <si>
+    <t>0x4001 5400</t>
+  </si>
+  <si>
     <t>PA5</t>
   </si>
   <si>
-    <t>UART7</t>
-  </si>
-  <si>
-    <t>0x4000 7800</t>
-  </si>
-  <si>
     <t>SPI1_SCK</t>
   </si>
   <si>
-    <t>UART8</t>
-  </si>
-  <si>
     <t>PA6</t>
   </si>
   <si>
-    <t>0x4000 7C00</t>
-  </si>
-  <si>
     <t>TIM3_CH1</t>
   </si>
   <si>
@@ -359,66 +395,36 @@
     <t>TIM13_CH1</t>
   </si>
   <si>
-    <t>SPI1</t>
-  </si>
-  <si>
-    <t>0x4001 3000</t>
-  </si>
-  <si>
     <t>PA7</t>
   </si>
   <si>
     <t>TIM3_CH2</t>
   </si>
   <si>
-    <t>SPI2</t>
-  </si>
-  <si>
     <t>SPI1_MOSI</t>
   </si>
   <si>
-    <t>0x4000 3800</t>
-  </si>
-  <si>
     <t>TIM14_CH1</t>
   </si>
   <si>
     <t>PA8</t>
   </si>
   <si>
-    <t>SPI3</t>
-  </si>
-  <si>
     <t>TIM1_CH1</t>
   </si>
   <si>
-    <t>0x4000 3C00</t>
-  </si>
-  <si>
     <t>I2C3_SCL</t>
   </si>
   <si>
-    <t>SPI4</t>
-  </si>
-  <si>
     <t>PA9</t>
   </si>
   <si>
-    <t>0x4001 3400</t>
-  </si>
-  <si>
     <t>TIM1_CH2</t>
   </si>
   <si>
     <t>USART1_TX</t>
   </si>
   <si>
-    <t>SPI5</t>
-  </si>
-  <si>
-    <t>0x4001 5000</t>
-  </si>
-  <si>
     <t>PA10</t>
   </si>
   <si>
@@ -428,12 +434,6 @@
     <t>USART1_RX</t>
   </si>
   <si>
-    <t>SPI6</t>
-  </si>
-  <si>
-    <t>0x4001 5400</t>
-  </si>
-  <si>
     <t>PA11</t>
   </si>
   <si>
@@ -521,12 +521,18 @@
     <t>TIM11_CH1</t>
   </si>
   <si>
+    <t>SPI2_NSS</t>
+  </si>
+  <si>
     <t>PB10</t>
   </si>
   <si>
     <t>I2C2_SCL</t>
   </si>
   <si>
+    <t>SPI2_SCK</t>
+  </si>
+  <si>
     <t>USART3_TX</t>
   </si>
   <si>
@@ -548,12 +554,18 @@
     <t>PB14</t>
   </si>
   <si>
+    <t>SPI2_MISO</t>
+  </si>
+  <si>
     <t>TIM12_CH1</t>
   </si>
   <si>
     <t>PB15</t>
   </si>
   <si>
+    <t>SPI2_MOSI</t>
+  </si>
+  <si>
     <t>TIM12_CH2</t>
   </si>
   <si>
@@ -636,9 +648,6 @@
   </si>
   <si>
     <t>PD2</t>
-  </si>
-  <si>
-    <t>SPI2_SCK</t>
   </si>
   <si>
     <t>UART5_RX</t>
@@ -995,206 +1004,206 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M2" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="N2" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="O2" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="P2" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="Q2" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="J4" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="G9" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="K9" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="K10" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C12" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I12" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
@@ -1225,7 +1234,7 @@
         <v>145</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
@@ -1236,10 +1245,10 @@
         <v>147</v>
       </c>
       <c r="G19" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="H19" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
@@ -1260,10 +1269,10 @@
         <v>151</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="G22" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="H22" t="s">
         <v>152</v>
@@ -1274,10 +1283,10 @@
         <v>153</v>
       </c>
       <c r="D23" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="G23" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="H23" t="s">
         <v>154</v>
@@ -1288,10 +1297,10 @@
         <v>155</v>
       </c>
       <c r="D24" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G24" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="H24" t="s">
         <v>156</v>
@@ -1308,7 +1317,7 @@
         <v>159</v>
       </c>
       <c r="I25" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -1322,7 +1331,7 @@
         <v>162</v>
       </c>
       <c r="I26" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -1352,282 +1361,306 @@
       <c r="F28" t="s">
         <v>162</v>
       </c>
+      <c r="G28" s="1" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="I29" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="F30" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I30" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" t="s">
-        <v>175</v>
+        <v>177</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" t="s">
-        <v>176</v>
+        <v>178</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" t="s">
-        <v>177</v>
+        <v>179</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="K33" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>179</v>
+        <v>182</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="K34" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>183</v>
+        <v>187</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="E41" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="J41" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D42" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E42" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="J42" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D43" t="s">
         <v>147</v>
       </c>
       <c r="E43" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D44" t="s">
         <v>149</v>
       </c>
       <c r="E44" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F44" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H45" t="s">
         <v>152</v>
       </c>
       <c r="I45" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="J45" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H46" t="s">
         <v>154</v>
       </c>
       <c r="I46" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J46" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H47" t="s">
         <v>156</v>
       </c>
       <c r="J47" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G53" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
       <c r="J53" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="I56" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G57" t="s">
         <v>156</v>
       </c>
       <c r="I57" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="I59" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I60" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D63" t="s">
         <v>158</v>
@@ -1635,7 +1668,7 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D64" t="s">
         <v>161</v>
@@ -1643,7 +1676,7 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D65" t="s">
         <v>164</v>
@@ -1651,7 +1684,7 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D66" t="s">
         <v>167</v>
@@ -1659,457 +1692,457 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="J67" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="J68" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G69" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G71" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E72" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="G72" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E73" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="J74" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="J75" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C76" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C78" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G78" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G79" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C80" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G80" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C81" t="s">
         <v>141</v>
       </c>
       <c r="G81" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F83" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F84" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E89" t="s">
         <v>165</v>
       </c>
       <c r="G89" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="J89" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E90" t="s">
         <v>168</v>
       </c>
       <c r="G90" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="J90" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G91" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K91" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G92" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K92" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G94" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G107" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="J108" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G111" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G112" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G113" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="J113" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F119" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F120" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G120" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="G121" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F122" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="G122" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F123" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K124" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1"/>
@@ -3013,21 +3046,21 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="C3">
         <v>0.0</v>
@@ -3035,10 +3068,10 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="C4">
         <v>1.0</v>
@@ -3046,10 +3079,10 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="C5">
         <v>2.0</v>
@@ -3057,10 +3090,10 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C6">
         <v>3.0</v>
@@ -3068,10 +3101,10 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="C7">
         <v>4.0</v>
@@ -3079,10 +3112,10 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="C8">
         <v>5.0</v>
@@ -3090,10 +3123,10 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="C9">
         <v>6.0</v>
@@ -3101,10 +3134,10 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="C10">
         <v>7.0</v>
@@ -3112,10 +3145,10 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="C11">
         <v>0.0</v>
@@ -3123,10 +3156,10 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="C12">
         <v>1.0</v>
@@ -3134,10 +3167,10 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C13">
         <v>2.0</v>
@@ -3145,10 +3178,10 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="C14">
         <v>3.0</v>
@@ -3156,10 +3189,10 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="C15">
         <v>4.0</v>
@@ -3167,10 +3200,10 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C16">
         <v>5.0</v>
@@ -3178,10 +3211,10 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="C17">
         <v>6.0</v>
@@ -3189,10 +3222,10 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="C18">
         <v>7.0</v>
@@ -3200,10 +3233,10 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="C19">
         <v>8.0</v>
@@ -3211,10 +3244,10 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="C20">
         <v>0.0</v>
@@ -3222,10 +3255,10 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="C21">
         <v>1.0</v>
@@ -3233,10 +3266,10 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="C22">
         <v>16.0</v>
@@ -3244,10 +3277,10 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="C23">
         <v>17.0</v>
@@ -3255,10 +3288,10 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C24">
         <v>18.0</v>
@@ -3266,10 +3299,10 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="C25">
         <v>21.0</v>
@@ -3277,10 +3310,10 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="C26">
         <v>22.0</v>
@@ -3288,10 +3321,10 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C27">
         <v>23.0</v>
@@ -3299,10 +3332,10 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C28">
         <v>4.0</v>
@@ -3310,10 +3343,10 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C29">
         <v>17.0</v>
@@ -3321,10 +3354,10 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C30">
         <v>18.0</v>
@@ -3332,10 +3365,10 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C31">
         <v>19.0</v>
@@ -3343,10 +3376,10 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C32">
         <v>20.0</v>
@@ -3365,10 +3398,10 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" t="s">
         <v>106</v>
-      </c>
-      <c r="B34" t="s">
-        <v>107</v>
       </c>
       <c r="C34">
         <v>30.0</v>
@@ -3376,10 +3409,10 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B35" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C35">
         <v>31.0</v>
@@ -3387,10 +3420,10 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B36" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C36">
         <v>12.0</v>
@@ -3398,10 +3431,10 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B37" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C37">
         <v>14.0</v>
@@ -3409,10 +3442,10 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B38" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C38">
         <v>15.0</v>
@@ -3420,10 +3453,10 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B39" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C39">
         <v>14.0</v>
@@ -3431,10 +3464,10 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B40" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="C40">
         <v>20.0</v>
@@ -3442,10 +3475,10 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="B41" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="C41">
         <v>21.0</v>

--- a/auto/devices/AFM_STM32F429xx.xlsx
+++ b/auto/devices/AFM_STM32F429xx.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="308">
   <si>
     <t>Device</t>
   </si>
@@ -113,306 +113,309 @@
     <t>PA3</t>
   </si>
   <si>
+    <t>Peripheral name</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>RCC enable bit position</t>
+  </si>
+  <si>
+    <t>GPIOA</t>
+  </si>
+  <si>
+    <t>0x40020000</t>
+  </si>
+  <si>
+    <t>GPIOB</t>
+  </si>
+  <si>
+    <t>0x40020400</t>
+  </si>
+  <si>
+    <t>GPIOC</t>
+  </si>
+  <si>
+    <t>0x40020800</t>
+  </si>
+  <si>
+    <t>GPIOD</t>
+  </si>
+  <si>
+    <t>0x40020C00</t>
+  </si>
+  <si>
+    <t>GPIOE</t>
+  </si>
+  <si>
+    <t>0x40021000</t>
+  </si>
+  <si>
+    <t>GPIOF</t>
+  </si>
+  <si>
+    <t>0x4002 1400</t>
+  </si>
+  <si>
+    <t>GPIOG</t>
+  </si>
+  <si>
+    <t>0x4002 1800</t>
+  </si>
+  <si>
+    <t>GPIOH</t>
+  </si>
+  <si>
+    <t>0x4002 1C00</t>
+  </si>
+  <si>
+    <t>Timer2</t>
+  </si>
+  <si>
+    <t>0x4000 0000</t>
+  </si>
+  <si>
+    <t>Timer3</t>
+  </si>
+  <si>
+    <t>0x4000 0400</t>
+  </si>
+  <si>
+    <t>Timer4</t>
+  </si>
+  <si>
+    <t>0x4000 0800</t>
+  </si>
+  <si>
+    <t>Timer5</t>
+  </si>
+  <si>
+    <t>0x4000 0C00</t>
+  </si>
+  <si>
+    <t>Timer6</t>
+  </si>
+  <si>
+    <t>0x4000 1000</t>
+  </si>
+  <si>
+    <t>Timer7</t>
+  </si>
+  <si>
+    <t>0x4000 1400</t>
+  </si>
+  <si>
+    <t>Timer12</t>
+  </si>
+  <si>
+    <t>0x4000 1800</t>
+  </si>
+  <si>
+    <t>Timer13</t>
+  </si>
+  <si>
+    <t>0x4000 1C00</t>
+  </si>
+  <si>
+    <t>Timer14</t>
+  </si>
+  <si>
+    <t>0x4000 2000</t>
+  </si>
+  <si>
+    <t>Timer1</t>
+  </si>
+  <si>
+    <t>0x40010000</t>
+  </si>
+  <si>
+    <t>Timer8</t>
+  </si>
+  <si>
+    <t>0x40010400</t>
+  </si>
+  <si>
+    <t>Timer9</t>
+  </si>
+  <si>
+    <t>0x40014000</t>
+  </si>
+  <si>
+    <t>Timer10</t>
+  </si>
+  <si>
+    <t>0x40014400</t>
+  </si>
+  <si>
+    <t>Timer11</t>
+  </si>
+  <si>
+    <t>0x40014800</t>
+  </si>
+  <si>
+    <t>I2C1</t>
+  </si>
+  <si>
+    <t>0x4000 5400</t>
+  </si>
+  <si>
+    <t>I2C2</t>
+  </si>
+  <si>
+    <t>0x4000 5800</t>
+  </si>
+  <si>
+    <t>I2C3</t>
+  </si>
+  <si>
+    <t>0x4000 5C00</t>
+  </si>
+  <si>
+    <t>USART1</t>
+  </si>
+  <si>
+    <t>0x4001 1000</t>
+  </si>
+  <si>
+    <t>USART2</t>
+  </si>
+  <si>
+    <t>0x4000 4400</t>
+  </si>
+  <si>
+    <t>USART3</t>
+  </si>
+  <si>
+    <t>0x4000 4800</t>
+  </si>
+  <si>
+    <t>UART4</t>
+  </si>
+  <si>
+    <t>0x4000 4C00</t>
+  </si>
+  <si>
+    <t>UART5</t>
+  </si>
+  <si>
+    <t>0x4000 5000</t>
+  </si>
+  <si>
+    <t>USART6</t>
+  </si>
+  <si>
+    <t>0x4001 1400</t>
+  </si>
+  <si>
+    <t>UART7</t>
+  </si>
+  <si>
+    <t>0x4000 7800</t>
+  </si>
+  <si>
     <t>TIM2_CH4</t>
   </si>
   <si>
+    <t>UART8</t>
+  </si>
+  <si>
+    <t>0x4000 7C00</t>
+  </si>
+  <si>
     <t>TIM5_CH4</t>
   </si>
   <si>
     <t>TIM9_CH2</t>
   </si>
   <si>
+    <t>SPI1</t>
+  </si>
+  <si>
     <t>USART2_RX</t>
   </si>
   <si>
+    <t>0x4001 3000</t>
+  </si>
+  <si>
+    <t>SPI2</t>
+  </si>
+  <si>
     <t>PA4</t>
   </si>
   <si>
+    <t>0x4000 3800</t>
+  </si>
+  <si>
     <t>SPI1_NSS</t>
   </si>
   <si>
     <t>SPI3_NSS</t>
   </si>
   <si>
-    <t>Peripheral name</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>RCC enable bit position</t>
-  </si>
-  <si>
-    <t>GPIOA</t>
-  </si>
-  <si>
-    <t>0x40020000</t>
-  </si>
-  <si>
-    <t>GPIOB</t>
-  </si>
-  <si>
-    <t>0x40020400</t>
-  </si>
-  <si>
-    <t>GPIOC</t>
-  </si>
-  <si>
-    <t>0x40020800</t>
-  </si>
-  <si>
-    <t>GPIOD</t>
-  </si>
-  <si>
-    <t>0x40020C00</t>
-  </si>
-  <si>
-    <t>GPIOE</t>
-  </si>
-  <si>
-    <t>0x40021000</t>
-  </si>
-  <si>
-    <t>GPIOF</t>
-  </si>
-  <si>
-    <t>0x4002 1400</t>
-  </si>
-  <si>
-    <t>GPIOG</t>
-  </si>
-  <si>
-    <t>0x4002 1800</t>
-  </si>
-  <si>
-    <t>GPIOH</t>
-  </si>
-  <si>
-    <t>0x4002 1C00</t>
-  </si>
-  <si>
-    <t>Timer2</t>
-  </si>
-  <si>
-    <t>0x4000 0000</t>
-  </si>
-  <si>
-    <t>Timer3</t>
-  </si>
-  <si>
-    <t>0x4000 0400</t>
-  </si>
-  <si>
-    <t>Timer4</t>
-  </si>
-  <si>
-    <t>0x4000 0800</t>
-  </si>
-  <si>
-    <t>Timer5</t>
-  </si>
-  <si>
-    <t>0x4000 0C00</t>
-  </si>
-  <si>
-    <t>Timer6</t>
-  </si>
-  <si>
-    <t>0x4000 1000</t>
-  </si>
-  <si>
-    <t>Timer7</t>
-  </si>
-  <si>
-    <t>0x4000 1400</t>
-  </si>
-  <si>
-    <t>Timer12</t>
-  </si>
-  <si>
-    <t>0x4000 1800</t>
-  </si>
-  <si>
-    <t>Timer13</t>
-  </si>
-  <si>
-    <t>0x4000 1C00</t>
-  </si>
-  <si>
-    <t>Timer14</t>
-  </si>
-  <si>
-    <t>0x4000 2000</t>
-  </si>
-  <si>
-    <t>Timer1</t>
-  </si>
-  <si>
-    <t>0x40010000</t>
-  </si>
-  <si>
-    <t>Timer8</t>
-  </si>
-  <si>
-    <t>0x40010400</t>
-  </si>
-  <si>
-    <t>Timer9</t>
-  </si>
-  <si>
-    <t>0x40014000</t>
-  </si>
-  <si>
-    <t>Timer10</t>
-  </si>
-  <si>
-    <t>0x40014400</t>
-  </si>
-  <si>
-    <t>Timer11</t>
-  </si>
-  <si>
-    <t>0x40014800</t>
-  </si>
-  <si>
-    <t>I2C1</t>
-  </si>
-  <si>
-    <t>0x4000 5400</t>
-  </si>
-  <si>
-    <t>I2C2</t>
-  </si>
-  <si>
-    <t>0x4000 5800</t>
-  </si>
-  <si>
-    <t>I2C3</t>
-  </si>
-  <si>
-    <t>0x4000 5C00</t>
-  </si>
-  <si>
-    <t>USART1</t>
-  </si>
-  <si>
-    <t>0x4001 1000</t>
-  </si>
-  <si>
-    <t>USART2</t>
-  </si>
-  <si>
-    <t>0x4000 4400</t>
-  </si>
-  <si>
-    <t>USART3</t>
-  </si>
-  <si>
-    <t>0x4000 4800</t>
-  </si>
-  <si>
-    <t>UART4</t>
-  </si>
-  <si>
-    <t>0x4000 4C00</t>
-  </si>
-  <si>
-    <t>UART5</t>
-  </si>
-  <si>
-    <t>0x4000 5000</t>
-  </si>
-  <si>
-    <t>USART6</t>
-  </si>
-  <si>
-    <t>0x4001 1400</t>
-  </si>
-  <si>
-    <t>UART7</t>
-  </si>
-  <si>
-    <t>0x4000 7800</t>
-  </si>
-  <si>
-    <t>UART8</t>
-  </si>
-  <si>
-    <t>0x4000 7C00</t>
-  </si>
-  <si>
-    <t>SPI1</t>
-  </si>
-  <si>
-    <t>0x4001 3000</t>
-  </si>
-  <si>
-    <t>SPI2</t>
-  </si>
-  <si>
-    <t>0x4000 3800</t>
-  </si>
-  <si>
     <t>SPI3</t>
   </si>
   <si>
+    <t>PA5</t>
+  </si>
+  <si>
     <t>0x4000 3C00</t>
   </si>
   <si>
+    <t>SPI1_SCK</t>
+  </si>
+  <si>
     <t>SPI4</t>
   </si>
   <si>
+    <t>PA6</t>
+  </si>
+  <si>
     <t>0x4001 3400</t>
   </si>
   <si>
+    <t>TIM3_CH1</t>
+  </si>
+  <si>
+    <t>SPI1_MISO</t>
+  </si>
+  <si>
+    <t>TIM13_CH1</t>
+  </si>
+  <si>
     <t>SPI5</t>
   </si>
   <si>
     <t>0x4001 5000</t>
   </si>
   <si>
+    <t>PA7</t>
+  </si>
+  <si>
+    <t>TIM3_CH2</t>
+  </si>
+  <si>
+    <t>SPI1_MOSI</t>
+  </si>
+  <si>
     <t>SPI6</t>
   </si>
   <si>
+    <t>TIM14_CH1</t>
+  </si>
+  <si>
     <t>0x4001 5400</t>
   </si>
   <si>
-    <t>PA5</t>
-  </si>
-  <si>
-    <t>SPI1_SCK</t>
-  </si>
-  <si>
-    <t>PA6</t>
-  </si>
-  <si>
-    <t>TIM3_CH1</t>
-  </si>
-  <si>
-    <t>SPI1_MISO</t>
-  </si>
-  <si>
-    <t>TIM13_CH1</t>
-  </si>
-  <si>
-    <t>PA7</t>
-  </si>
-  <si>
-    <t>TIM3_CH2</t>
-  </si>
-  <si>
-    <t>SPI1_MOSI</t>
-  </si>
-  <si>
-    <t>TIM14_CH1</t>
-  </si>
-  <si>
     <t>PA8</t>
   </si>
   <si>
     <t>TIM1_CH1</t>
   </si>
   <si>
+    <t>SYSCFG</t>
+  </si>
+  <si>
     <t>I2C3_SCL</t>
   </si>
   <si>
@@ -588,6 +591,9 @@
   </si>
   <si>
     <t>PC6</t>
+  </si>
+  <si>
+    <t>0x4001 3800</t>
   </si>
   <si>
     <t>TIM8_CH1</t>
@@ -942,7 +948,9 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -958,12 +966,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1111,66 +1122,66 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" t="s">
         <v>127</v>
       </c>
-      <c r="D10" t="s">
-        <v>128</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="K10" t="s">
         <v>129</v>
-      </c>
-      <c r="K10" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -1181,57 +1192,57 @@
         <v>132</v>
       </c>
       <c r="F11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
@@ -1239,299 +1250,299 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C22" t="s">
         <v>24</v>
       </c>
       <c r="G22" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D23" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G23" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H24" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E28" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F28" t="s">
-        <v>162</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
+      </c>
+      <c r="G28" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>171</v>
-      </c>
-      <c r="G29" s="1" t="s">
         <v>172</v>
       </c>
+      <c r="G29" t="s">
+        <v>173</v>
+      </c>
       <c r="I29" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="F30" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I30" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" t="s">
-        <v>177</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>169</v>
+        <v>178</v>
+      </c>
+      <c r="G31" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" t="s">
-        <v>178</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>172</v>
+        <v>179</v>
+      </c>
+      <c r="G32" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" t="s">
-        <v>179</v>
-      </c>
-      <c r="G33" s="1" t="s">
         <v>180</v>
       </c>
+      <c r="G33" t="s">
+        <v>181</v>
+      </c>
       <c r="K33" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>182</v>
-      </c>
-      <c r="G34" s="1" t="s">
         <v>183</v>
       </c>
+      <c r="G34" t="s">
+        <v>184</v>
+      </c>
       <c r="K34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>187</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>180</v>
+        <v>188</v>
+      </c>
+      <c r="G37" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" t="s">
-        <v>188</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
+      </c>
+      <c r="G38" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D41" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E41" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J41" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D42" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E42" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="J42" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D43" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E43" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D44" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E44" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F44" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H45" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I45" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J45" t="s">
         <v>22</v>
@@ -1539,13 +1550,13 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H46" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I46" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J46" t="s">
         <v>26</v>
@@ -1553,64 +1564,64 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H47" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J47" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G53" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J53" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I56" t="s">
         <v>31</v>
@@ -1618,156 +1629,156 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G57" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I57" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I59" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I60" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D63" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D64" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D65" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D66" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J67" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J68" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G69" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G71" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E72" t="s">
         <v>30</v>
       </c>
       <c r="G72" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E73" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="G73" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="J74" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J75" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C76" t="s">
         <v>132</v>
@@ -1775,374 +1786,374 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C78" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G78" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G79" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C80" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G80" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C81" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G81" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F83" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F84" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E89" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G89" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J89" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E90" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G90" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="J90" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G91" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K91" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G92" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K92" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" t="s">
+        <v>267</v>
+      </c>
+      <c r="G94" t="s">
         <v>265</v>
-      </c>
-      <c r="G94" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G107" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="J108" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G111" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G112" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G113" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="J113" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F119" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F120" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G120" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G121" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F122" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G122" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F123" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K124" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1"/>
@@ -3046,21 +3057,21 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C3">
         <v>0.0</v>
@@ -3068,10 +3079,10 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C4">
         <v>1.0</v>
@@ -3079,10 +3090,10 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C5">
         <v>2.0</v>
@@ -3090,10 +3101,10 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>3.0</v>
@@ -3101,10 +3112,10 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C7">
         <v>4.0</v>
@@ -3112,10 +3123,10 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C8">
         <v>5.0</v>
@@ -3123,10 +3134,10 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C9">
         <v>6.0</v>
@@ -3134,10 +3145,10 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C10">
         <v>7.0</v>
@@ -3145,10 +3156,10 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C11">
         <v>0.0</v>
@@ -3156,10 +3167,10 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C12">
         <v>1.0</v>
@@ -3167,10 +3178,10 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C13">
         <v>2.0</v>
@@ -3178,10 +3189,10 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C14">
         <v>3.0</v>
@@ -3189,10 +3200,10 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C15">
         <v>4.0</v>
@@ -3200,10 +3211,10 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C16">
         <v>5.0</v>
@@ -3211,10 +3222,10 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C17">
         <v>6.0</v>
@@ -3222,10 +3233,10 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C18">
         <v>7.0</v>
@@ -3233,10 +3244,10 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C19">
         <v>8.0</v>
@@ -3244,10 +3255,10 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C20">
         <v>0.0</v>
@@ -3255,10 +3266,10 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C21">
         <v>1.0</v>
@@ -3266,10 +3277,10 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C22">
         <v>16.0</v>
@@ -3277,10 +3288,10 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C23">
         <v>17.0</v>
@@ -3288,10 +3299,10 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C24">
         <v>18.0</v>
@@ -3299,10 +3310,10 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C25">
         <v>21.0</v>
@@ -3310,10 +3321,10 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C26">
         <v>22.0</v>
@@ -3321,10 +3332,10 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C27">
         <v>23.0</v>
@@ -3332,10 +3343,10 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C28">
         <v>4.0</v>
@@ -3343,10 +3354,10 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C29">
         <v>17.0</v>
@@ -3354,10 +3365,10 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C30">
         <v>18.0</v>
@@ -3365,10 +3376,10 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B31" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C31">
         <v>19.0</v>
@@ -3376,10 +3387,10 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C32">
         <v>20.0</v>
@@ -3387,10 +3398,10 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B33" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C33">
         <v>5.0</v>
@@ -3398,10 +3409,10 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C34">
         <v>30.0</v>
@@ -3409,10 +3420,10 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C35">
         <v>31.0</v>
@@ -3420,10 +3431,10 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C36">
         <v>12.0</v>
@@ -3431,10 +3442,10 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B37" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C37">
         <v>14.0</v>
@@ -3445,7 +3456,7 @@
         <v>113</v>
       </c>
       <c r="B38" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C38">
         <v>15.0</v>
@@ -3453,10 +3464,10 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B39" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C39">
         <v>14.0</v>
@@ -3464,10 +3475,10 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C40">
         <v>20.0</v>
@@ -3475,16 +3486,26 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C41">
         <v>21.0</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C42" s="2">
+        <v>14.0</v>
+      </c>
+    </row>
     <row r="43" ht="15.75" customHeight="1"/>
     <row r="44" ht="15.75" customHeight="1"/>
     <row r="45" ht="15.75" customHeight="1"/>
